--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>22.2769814661445</v>
+        <v>141.4623959974125</v>
       </c>
       <c r="R2">
-        <v>89.10792586457801</v>
+        <v>565.84958398965</v>
       </c>
       <c r="S2">
-        <v>0.0595810716599352</v>
+        <v>0.2378606684099059</v>
       </c>
       <c r="T2">
-        <v>0.03830059326538252</v>
+        <v>0.1918067131851133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H3">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I3">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J3">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>21.57233712086867</v>
+        <v>103.0212732531083</v>
       </c>
       <c r="R3">
-        <v>129.434022725212</v>
+        <v>618.12763951865</v>
       </c>
       <c r="S3">
-        <v>0.05769645972117445</v>
+        <v>0.173224189677037</v>
       </c>
       <c r="T3">
-        <v>0.05563365784806443</v>
+        <v>0.2095274684643285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H4">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I4">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J4">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.1180012202663333</v>
+        <v>0.1660380431833333</v>
       </c>
       <c r="R4">
-        <v>0.7080073215980001</v>
+        <v>0.9962282591</v>
       </c>
       <c r="S4">
-        <v>0.0003156010688132517</v>
+        <v>0.0002791831684639562</v>
       </c>
       <c r="T4">
-        <v>0.0003043174912930772</v>
+        <v>0.0003376926896593664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H5">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I5">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J5">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>21.8365329702065</v>
+        <v>123.3895218940375</v>
       </c>
       <c r="R5">
-        <v>87.34613188082601</v>
+        <v>493.55808757615</v>
       </c>
       <c r="S5">
-        <v>0.05840306675658351</v>
+        <v>0.207472197438472</v>
       </c>
       <c r="T5">
-        <v>0.03754333453520366</v>
+        <v>0.1673019778090766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H6">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I6">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J6">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>12.62461311341367</v>
+        <v>0.0012647696125</v>
       </c>
       <c r="R6">
-        <v>75.747678680482</v>
+        <v>0.007588617675000001</v>
       </c>
       <c r="S6">
-        <v>0.0337652558418831</v>
+        <v>2.126635444654072E-06</v>
       </c>
       <c r="T6">
-        <v>0.03255805815014823</v>
+        <v>2.572322848764045E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.157807</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H7">
-        <v>14.315614</v>
+        <v>11.166373</v>
       </c>
       <c r="I7">
-        <v>0.2111248948034031</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J7">
-        <v>0.1656546544479295</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.5097814004756667</v>
+        <v>15.403598397699</v>
       </c>
       <c r="R7">
-        <v>3.058688402854</v>
+        <v>92.421590386194</v>
       </c>
       <c r="S7">
-        <v>0.001363439755013611</v>
+        <v>0.02590024143844882</v>
       </c>
       <c r="T7">
-        <v>0.001314693157837518</v>
+        <v>0.03132825751028737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J8">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>11.58423170509517</v>
+        <v>11.21781027687044</v>
       </c>
       <c r="R8">
-        <v>69.505390230571</v>
+        <v>100.960292491834</v>
       </c>
       <c r="S8">
-        <v>0.03098269576582909</v>
+        <v>0.01886208579841049</v>
       </c>
       <c r="T8">
-        <v>0.02987498199675887</v>
+        <v>0.0342226316197496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J9">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>11.21781027687044</v>
+        <v>0.01807959859511111</v>
       </c>
       <c r="R9">
-        <v>100.960292491834</v>
+        <v>0.162716387356</v>
       </c>
       <c r="S9">
-        <v>0.03000268052426812</v>
+        <v>3.039977780734453E-05</v>
       </c>
       <c r="T9">
-        <v>0.04339500735950724</v>
+        <v>5.515616927745405E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J10">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.06136170105122222</v>
+        <v>13.43567404142233</v>
       </c>
       <c r="R10">
-        <v>0.552255309461</v>
+        <v>80.614044248534</v>
       </c>
       <c r="S10">
-        <v>0.0001641154082326908</v>
+        <v>0.02259129279903327</v>
       </c>
       <c r="T10">
-        <v>0.0002373717689093008</v>
+        <v>0.02732583941274651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J11">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>11.35519450636783</v>
+        <v>0.0001377186003333333</v>
       </c>
       <c r="R11">
-        <v>68.131167038207</v>
+        <v>0.001239467403</v>
       </c>
       <c r="S11">
-        <v>0.0303701225691012</v>
+        <v>2.315656969952816E-07</v>
       </c>
       <c r="T11">
-        <v>0.02928430992089237</v>
+        <v>4.20143754446706E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.722124333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H12">
-        <v>11.166373</v>
+        <v>4.681473</v>
       </c>
       <c r="I12">
-        <v>0.1097868534762375</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J12">
-        <v>0.1292128762868075</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.763754333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N12">
-        <v>5.291263</v>
+        <v>8.276778</v>
       </c>
       <c r="O12">
-        <v>0.1599302435334539</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P12">
-        <v>0.1965417649063538</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q12">
-        <v>6.564912922122111</v>
+        <v>6.457918788999001</v>
       </c>
       <c r="R12">
-        <v>59.084216299099</v>
+        <v>38.74751273399401</v>
       </c>
       <c r="S12">
-        <v>0.01755823821322628</v>
+        <v>0.01085860923574551</v>
       </c>
       <c r="T12">
-        <v>0.0253957267540355</v>
+        <v>0.01313429093506527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.722124333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H13">
-        <v>11.166373</v>
+        <v>4.681473</v>
       </c>
       <c r="I13">
-        <v>0.1097868534762375</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J13">
-        <v>0.1292128762868075</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07122033333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N13">
-        <v>0.213661</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O13">
-        <v>0.006457977190625621</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P13">
-        <v>0.00793634904023037</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q13">
-        <v>0.2650909357281111</v>
+        <v>4.703037945292666</v>
       </c>
       <c r="R13">
-        <v>2.385818421553</v>
+        <v>42.327341507634</v>
       </c>
       <c r="S13">
-        <v>0.0007090009955800988</v>
+        <v>0.007907880686857062</v>
       </c>
       <c r="T13">
-        <v>0.00102547848670421</v>
+        <v>0.0143477497945666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H14">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I14">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J14">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.1122635</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N14">
-        <v>6.224527</v>
+        <v>0.014572</v>
       </c>
       <c r="O14">
-        <v>0.2822077032432218</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P14">
-        <v>0.2312074682901326</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q14">
-        <v>4.887736169847167</v>
+        <v>0.007579824950666667</v>
       </c>
       <c r="R14">
-        <v>29.326417019083</v>
+        <v>0.06821842455600001</v>
       </c>
       <c r="S14">
-        <v>0.01307253226533848</v>
+        <v>1.274502822098838E-05</v>
       </c>
       <c r="T14">
-        <v>0.0126051544717347</v>
+        <v>2.312408131591437E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H15">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I15">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J15">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.013819333333334</v>
+        <v>3.609679</v>
       </c>
       <c r="N15">
-        <v>9.041458</v>
+        <v>7.219358</v>
       </c>
       <c r="O15">
-        <v>0.2732811768830042</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P15">
-        <v>0.3358411994729184</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q15">
-        <v>4.733131935942445</v>
+        <v>5.632871592389</v>
       </c>
       <c r="R15">
-        <v>42.598187423482</v>
+        <v>33.797229554334</v>
       </c>
       <c r="S15">
-        <v>0.01265903432562856</v>
+        <v>0.009471341076799842</v>
       </c>
       <c r="T15">
-        <v>0.01830966027453998</v>
+        <v>0.01145628749936158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H16">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I16">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J16">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01648566666666667</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N16">
-        <v>0.049457</v>
+        <v>0.000111</v>
       </c>
       <c r="O16">
-        <v>0.001494854830393808</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P16">
-        <v>0.001837059708990754</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q16">
-        <v>0.02589034933922222</v>
+        <v>5.7738167E-05</v>
       </c>
       <c r="R16">
-        <v>0.233013144053</v>
+        <v>0.000519643503</v>
       </c>
       <c r="S16">
-        <v>6.924523242187397E-05</v>
+        <v>9.708331955323289E-08</v>
       </c>
       <c r="T16">
-        <v>0.0001001542968178278</v>
+        <v>1.761441824091748E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.570476333333333</v>
+        <v>11.3729585</v>
       </c>
       <c r="H17">
-        <v>4.711429</v>
+        <v>22.745917</v>
       </c>
       <c r="I17">
-        <v>0.04632237927988758</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J17">
-        <v>0.05451880324175783</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0507295</v>
+        <v>4.138389</v>
       </c>
       <c r="N17">
-        <v>6.101459</v>
+        <v>8.276778</v>
       </c>
       <c r="O17">
-        <v>0.2766280443193008</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P17">
-        <v>0.226636158581374</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q17">
-        <v>4.791098479151834</v>
+        <v>47.0657263538565</v>
       </c>
       <c r="R17">
-        <v>28.746590874911</v>
+        <v>188.262905415426</v>
       </c>
       <c r="S17">
-        <v>0.0128140691884122</v>
+        <v>0.07913824059597294</v>
       </c>
       <c r="T17">
-        <v>0.01235593213716576</v>
+        <v>0.06381570319060838</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.570476333333333</v>
+        <v>11.3729585</v>
       </c>
       <c r="H18">
-        <v>4.711429</v>
+        <v>22.745917</v>
       </c>
       <c r="I18">
-        <v>0.04632237927988758</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J18">
-        <v>0.05451880324175783</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.763754333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N18">
-        <v>5.291263</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O18">
-        <v>0.1599302435334539</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P18">
-        <v>0.1965417649063538</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q18">
-        <v>2.769934438314111</v>
+        <v>34.27604220449766</v>
       </c>
       <c r="R18">
-        <v>24.929409944827</v>
+        <v>205.656253226986</v>
       </c>
       <c r="S18">
-        <v>0.007408349399281439</v>
+        <v>0.05763314166796018</v>
       </c>
       <c r="T18">
-        <v>0.01071522180971733</v>
+        <v>0.06971154719123208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.570476333333333</v>
+        <v>11.3729585</v>
       </c>
       <c r="H19">
-        <v>4.711429</v>
+        <v>22.745917</v>
       </c>
       <c r="I19">
-        <v>0.04632237927988758</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J19">
-        <v>0.05451880324175783</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07122033333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N19">
-        <v>0.213661</v>
+        <v>0.014572</v>
       </c>
       <c r="O19">
-        <v>0.006457977190625621</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P19">
-        <v>0.00793634904023037</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q19">
-        <v>0.1118498479521111</v>
+        <v>0.05524225042066666</v>
       </c>
       <c r="R19">
-        <v>1.006648631569</v>
+        <v>0.331453502524</v>
       </c>
       <c r="S19">
-        <v>0.0002991488688050229</v>
+        <v>9.288658315788403E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004326802517822331</v>
+        <v>0.0001123531918934572</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H20">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I20">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J20">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1122635</v>
+        <v>3.609679</v>
       </c>
       <c r="N20">
-        <v>6.224527</v>
+        <v>7.219358</v>
       </c>
       <c r="O20">
-        <v>0.2822077032432218</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P20">
-        <v>0.2312074682901326</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q20">
-        <v>25.313078541509</v>
+        <v>41.0527294653215</v>
       </c>
       <c r="R20">
-        <v>101.252314166036</v>
+        <v>164.210917861286</v>
       </c>
       <c r="S20">
-        <v>0.06770128838178892</v>
+        <v>0.06902774127232385</v>
       </c>
       <c r="T20">
-        <v>0.04352052485146732</v>
+        <v>0.05566277207806517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H21">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I21">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J21">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.013819333333334</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N21">
-        <v>9.041458</v>
+        <v>0.000111</v>
       </c>
       <c r="O21">
-        <v>0.2732811768830042</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P21">
-        <v>0.3358411994729184</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q21">
-        <v>24.51239925365734</v>
+        <v>0.0004207994645</v>
       </c>
       <c r="R21">
-        <v>147.074395521944</v>
+        <v>0.002524796787</v>
       </c>
       <c r="S21">
-        <v>0.0655598254507084</v>
+        <v>7.07549459959177E-07</v>
       </c>
       <c r="T21">
-        <v>0.06321588734091732</v>
+        <v>8.558333996825249E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.577819333333334</v>
+      </c>
+      <c r="H22">
+        <v>7.733458000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.04666808800888241</v>
+      </c>
+      <c r="J22">
+        <v>0.0643618188686375</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.133334000000001</v>
-      </c>
-      <c r="H22">
-        <v>16.266668</v>
-      </c>
-      <c r="I22">
-        <v>0.2398987965379539</v>
-      </c>
-      <c r="J22">
-        <v>0.188231483927912</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01648566666666667</v>
+        <v>4.138389</v>
       </c>
       <c r="N22">
-        <v>0.049457</v>
+        <v>8.276778</v>
       </c>
       <c r="O22">
-        <v>0.001494854830393808</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P22">
-        <v>0.001837059708990754</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q22">
-        <v>0.1340834332126667</v>
+        <v>10.668019173054</v>
       </c>
       <c r="R22">
-        <v>0.8045005992760002</v>
+        <v>64.00811503832401</v>
       </c>
       <c r="S22">
-        <v>0.0003586138748104217</v>
+        <v>0.01793764451125747</v>
       </c>
       <c r="T22">
-        <v>0.0003457924750875078</v>
+        <v>0.02169690764127188</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.133334000000001</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H23">
-        <v>16.266668</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I23">
-        <v>0.2398987965379539</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J23">
-        <v>0.188231483927912</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.0507295</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N23">
-        <v>6.101459</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O23">
-        <v>0.2766280443193008</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P23">
-        <v>0.226636158581374</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q23">
-        <v>24.812601967153</v>
+        <v>7.769081744640444</v>
       </c>
       <c r="R23">
-        <v>99.25040786861202</v>
+        <v>69.92173570176399</v>
       </c>
       <c r="S23">
-        <v>0.06636273492084802</v>
+        <v>0.01306325234831435</v>
       </c>
       <c r="T23">
-        <v>0.04266006044149363</v>
+        <v>0.02370145474101621</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.133334000000001</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H24">
-        <v>16.266668</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I24">
-        <v>0.2398987965379539</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J24">
-        <v>0.188231483927912</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.763754333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N24">
-        <v>5.291263</v>
+        <v>0.014572</v>
       </c>
       <c r="O24">
-        <v>0.1599302435334539</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P24">
-        <v>0.1965417649063538</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q24">
-        <v>14.34520308694733</v>
+        <v>0.01252132777511111</v>
       </c>
       <c r="R24">
-        <v>86.07121852168402</v>
+        <v>0.112691949976</v>
       </c>
       <c r="S24">
-        <v>0.03836707295369748</v>
+        <v>2.105387352566774E-05</v>
       </c>
       <c r="T24">
-        <v>0.0369953480621338</v>
+        <v>3.819932564925793E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.133334000000001</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H25">
-        <v>16.266668</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I25">
-        <v>0.2398987965379539</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J25">
-        <v>0.188231483927912</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07122033333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N25">
-        <v>0.213661</v>
+        <v>7.219358</v>
       </c>
       <c r="O25">
-        <v>0.006457977190625621</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P25">
-        <v>0.00793634904023037</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q25">
-        <v>0.5792587585913334</v>
+        <v>9.305100313327335</v>
       </c>
       <c r="R25">
-        <v>3.475552551548001</v>
+        <v>55.830601879964</v>
       </c>
       <c r="S25">
-        <v>0.001549260956100643</v>
+        <v>0.01564597690109638</v>
       </c>
       <c r="T25">
-        <v>0.001493870756812423</v>
+        <v>0.01892496618313035</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H26">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I26">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J26">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>3.1122635</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N26">
-        <v>6.224527</v>
+        <v>0.000111</v>
       </c>
       <c r="O26">
-        <v>0.2822077032432218</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P26">
-        <v>0.2312074682901326</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q26">
-        <v>35.04951998464984</v>
+        <v>9.537931533333335E-05</v>
       </c>
       <c r="R26">
-        <v>210.297119907899</v>
+        <v>0.000858413838</v>
       </c>
       <c r="S26">
-        <v>0.09374196252869509</v>
+        <v>1.603746885361734E-07</v>
       </c>
       <c r="T26">
-        <v>0.09039043807073539</v>
+        <v>2.909775697960219E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.26174566666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H27">
-        <v>33.785237</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I27">
-        <v>0.3321736488812399</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J27">
-        <v>0.3909494738176372</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.013819333333334</v>
+        <v>4.138389</v>
       </c>
       <c r="N27">
-        <v>9.041458</v>
+        <v>8.276778</v>
       </c>
       <c r="O27">
-        <v>0.2732811768830042</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P27">
-        <v>0.3358411994729184</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q27">
-        <v>33.9408668172829</v>
+        <v>7.535789793308999</v>
       </c>
       <c r="R27">
-        <v>305.467801355546</v>
+        <v>45.21473875985399</v>
       </c>
       <c r="S27">
-        <v>0.09077680569578704</v>
+        <v>0.01267098570326641</v>
       </c>
       <c r="T27">
-        <v>0.1312969402202216</v>
+        <v>0.01532649430950146</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.26174566666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H28">
-        <v>33.785237</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I28">
-        <v>0.3321736488812399</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J28">
-        <v>0.3909494738176372</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01648566666666667</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N28">
-        <v>0.049457</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O28">
-        <v>0.001494854830393808</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P28">
-        <v>0.001837059708990754</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q28">
-        <v>0.1856573851454445</v>
+        <v>5.48800728278822</v>
       </c>
       <c r="R28">
-        <v>1.670916466309</v>
+        <v>49.39206554509398</v>
       </c>
       <c r="S28">
-        <v>0.0004965513835596581</v>
+        <v>0.009227760291479259</v>
       </c>
       <c r="T28">
-        <v>0.0007181975266015169</v>
+        <v>0.01674248778771117</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.26174566666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H29">
-        <v>33.785237</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I29">
-        <v>0.3321736488812399</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J29">
-        <v>0.3909494738176372</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.0507295</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N29">
-        <v>6.101459</v>
+        <v>0.014572</v>
       </c>
       <c r="O29">
-        <v>0.2766280443193008</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P29">
-        <v>0.226636158581374</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q29">
-        <v>34.35653972679717</v>
+        <v>0.008844949799555555</v>
       </c>
       <c r="R29">
-        <v>206.139238360783</v>
+        <v>0.07960454819599999</v>
       </c>
       <c r="S29">
-        <v>0.09188854686442348</v>
+        <v>1.487226097466092E-05</v>
       </c>
       <c r="T29">
-        <v>0.08860328694543877</v>
+        <v>2.698364932320951E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.26174566666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H30">
-        <v>33.785237</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I30">
-        <v>0.3321736488812399</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J30">
-        <v>0.3909494738176372</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.763754333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N30">
-        <v>5.291263</v>
+        <v>7.219358</v>
       </c>
       <c r="O30">
-        <v>0.1599302435334539</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P30">
-        <v>0.1965417649063538</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q30">
-        <v>19.86295272048122</v>
+        <v>6.573036552465665</v>
       </c>
       <c r="R30">
-        <v>178.766574484331</v>
+        <v>39.438219314794</v>
       </c>
       <c r="S30">
-        <v>0.05312461256097271</v>
+        <v>0.01105217295966643</v>
       </c>
       <c r="T30">
-        <v>0.07683789957332879</v>
+        <v>0.01336842057443777</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.26174566666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H31">
-        <v>33.785237</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I31">
-        <v>0.3321736488812399</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J31">
-        <v>0.3909494738176372</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07122033333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N31">
-        <v>0.213661</v>
+        <v>0.000111</v>
       </c>
       <c r="O31">
-        <v>0.006457977190625621</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P31">
-        <v>0.00793634904023037</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q31">
-        <v>0.8020652802952223</v>
+        <v>6.737506366666665E-05</v>
       </c>
       <c r="R31">
-        <v>7.218587522657</v>
+        <v>0.0006063755729999999</v>
       </c>
       <c r="S31">
-        <v>0.002145169847801931</v>
+        <v>1.132871924366842E-07</v>
       </c>
       <c r="T31">
-        <v>0.003102711481311173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H32">
-        <v>6.173102</v>
-      </c>
-      <c r="I32">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J32">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.1122635</v>
-      </c>
-      <c r="N32">
-        <v>6.224527</v>
-      </c>
-      <c r="O32">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P32">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q32">
-        <v>6.404106678792334</v>
-      </c>
-      <c r="R32">
-        <v>38.424640072754</v>
-      </c>
-      <c r="S32">
-        <v>0.01712815264163494</v>
-      </c>
-      <c r="T32">
-        <v>0.0165157756340538</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H33">
-        <v>6.173102</v>
-      </c>
-      <c r="I33">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J33">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N33">
-        <v>9.041458</v>
-      </c>
-      <c r="O33">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P33">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q33">
-        <v>6.20153805141289</v>
-      </c>
-      <c r="R33">
-        <v>55.813842462716</v>
-      </c>
-      <c r="S33">
-        <v>0.01658637116543757</v>
-      </c>
-      <c r="T33">
-        <v>0.0239900464296678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H34">
-        <v>6.173102</v>
-      </c>
-      <c r="I34">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J34">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.049457</v>
-      </c>
-      <c r="O34">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P34">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q34">
-        <v>0.03392256729044445</v>
-      </c>
-      <c r="R34">
-        <v>0.305303105614</v>
-      </c>
-      <c r="S34">
-        <v>9.072786255591141E-05</v>
-      </c>
-      <c r="T34">
-        <v>0.0001312261502815232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H35">
-        <v>6.173102</v>
-      </c>
-      <c r="I35">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J35">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.0507295</v>
-      </c>
-      <c r="N35">
-        <v>6.101459</v>
-      </c>
-      <c r="O35">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P35">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q35">
-        <v>6.277488125969668</v>
-      </c>
-      <c r="R35">
-        <v>37.664928755818</v>
-      </c>
-      <c r="S35">
-        <v>0.01678950401993232</v>
-      </c>
-      <c r="T35">
-        <v>0.01618923460117986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H36">
-        <v>6.173102</v>
-      </c>
-      <c r="I36">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J36">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N36">
-        <v>5.291263</v>
-      </c>
-      <c r="O36">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P36">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q36">
-        <v>3.629278467536222</v>
-      </c>
-      <c r="R36">
-        <v>32.663506207826</v>
-      </c>
-      <c r="S36">
-        <v>0.009706714564392895</v>
-      </c>
-      <c r="T36">
-        <v>0.01403951055699018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.057700666666667</v>
-      </c>
-      <c r="H37">
-        <v>6.173102</v>
-      </c>
-      <c r="I37">
-        <v>0.06069342702127795</v>
-      </c>
-      <c r="J37">
-        <v>0.07143270827795596</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.213661</v>
-      </c>
-      <c r="O37">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P37">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q37">
-        <v>0.1465501273802222</v>
-      </c>
-      <c r="R37">
-        <v>1.318951146422</v>
-      </c>
-      <c r="S37">
-        <v>0.0003919567673243138</v>
-      </c>
-      <c r="T37">
-        <v>0.0005669149057828118</v>
+        <v>2.055438563598858E-07</v>
       </c>
     </row>
   </sheetData>
